--- a/Punto 5  Reporte issue.xlsx
+++ b/Punto 5  Reporte issue.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Reporte issue" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Copia de Reporte issue" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Para  el tema de las ISSUES de acuerdo lo que se charle con el cliente el registro de las respectivas incidencias se podria hacer via correo, drive compartido por el cliente, o en alguna plataforma como JIRA o Azure Devops, en todo caso en cualquier escenario la issue se debe reportar y debe contener como minimo la siguiente infromacion:</t>
   </si>
@@ -19,10 +19,22 @@
     <t>REPORTE ISSUES</t>
   </si>
   <si>
+    <t>DIRIGIADO A.</t>
+  </si>
+  <si>
+    <t>Equipo desarollo</t>
+  </si>
+  <si>
+    <t>COPIA A:</t>
+  </si>
+  <si>
+    <t>Equipo Tester, PO, lider de proyecto</t>
+  </si>
+  <si>
     <t>NOMBRE ISSUE</t>
   </si>
   <si>
-    <t>Curso java sin imagen</t>
+    <t>Radicado : Curso java sin imagen</t>
   </si>
   <si>
     <t>Se le da un mombre a la incidencia</t>
@@ -31,8 +43,8 @@
     <t>DESCRIPCION GENERAL</t>
   </si>
   <si>
-    <t xml:space="preserve">Se evidencio que el curso de java no presenta la
- imagen </t>
+    <t xml:space="preserve">
+Se probo el aplicativo CHOUCAIR ACADEMY en el modulo Cursos y certificaciones en ambiente de calidad y se evidencio que al consultar el curso de Java este no presenta la imagen principal del curso</t>
   </si>
   <si>
     <t>Se hara un resumen de la prueba hecha y la no confomridad o hallazgo encontrado</t>
@@ -47,6 +59,12 @@
     <t>De acuerdo a la criticidad del evento se dara un status de: Alta-media.baja</t>
   </si>
   <si>
+    <t>AMBIENTE:</t>
+  </si>
+  <si>
+    <t>Calidad</t>
+  </si>
+  <si>
     <t>PLATAFOMA</t>
   </si>
   <si>
@@ -62,13 +80,19 @@
     <t>Cursos y Certificaciones</t>
   </si>
   <si>
-    <t xml:space="preserve">Adjuntos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">imagen </t>
-  </si>
-  <si>
-    <t>Se envia una captura de pantalla donde se evidencia la falla</t>
+    <t>ESTADO:</t>
+  </si>
+  <si>
+    <t>Reportado</t>
+  </si>
+  <si>
+    <t>ADJUNTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagen </t>
+  </si>
+  <si>
+    <t>Se adjunta imagen del error</t>
   </si>
   <si>
     <r>
@@ -119,15 +143,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -252,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -278,10 +302,13 @@
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -291,15 +318,12 @@
     </xf>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -314,6 +338,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -324,7 +351,92 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6334125" cy="3343275"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5676900" cy="1647825"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image3.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5638800" cy="1343025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -583,190 +695,209 @@
       <c r="C11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>4</v>
-      </c>
+      <c r="D11" s="14"/>
     </row>
     <row r="12">
       <c r="B12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="14" t="s">
+      <c r="D13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="14" t="s">
+    </row>
+    <row r="14" ht="90.0" customHeight="1">
+      <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="14" t="s">
+      <c r="D14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="14" t="s">
+    </row>
+    <row r="15">
+      <c r="B15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="C15" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="14" t="s">
+      <c r="D15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="14" t="s">
+    </row>
+    <row r="16">
+      <c r="B16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="18" t="s">
+      <c r="C16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="C17" s="15" t="s">
         <v>18</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="19"/>
     </row>
     <row r="20">
-      <c r="B20" s="6"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="23"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="20"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="21"/>
+      <c r="B20" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="21"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
     </row>
     <row r="33">
       <c r="A33" s="20"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
       <c r="H33" s="21"/>
     </row>
     <row r="34">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="5"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="23"/>
     </row>
     <row r="35">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="5"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="21"/>
     </row>
     <row r="36">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="5"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="21"/>
     </row>
     <row r="37">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="21"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
     </row>
     <row r="42">
-      <c r="B42" s="27"/>
+      <c r="B42" s="6"/>
+      <c r="D42" s="7"/>
     </row>
     <row r="43">
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="5"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="5"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
     </row>
     <row r="46">
-      <c r="B46" s="5"/>
+      <c r="B46" s="27"/>
     </row>
     <row r="47">
       <c r="B47" s="5"/>
@@ -776,13 +907,16 @@
     </row>
     <row r="49">
       <c r="B49" s="5"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B5:D7"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B19:D21"/>
-    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B41:D43"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
